--- a/sources/table_normalization/xlsx/health-table13.xlsx
+++ b/sources/table_normalization/xlsx/health-table13.xlsx
@@ -261,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="ddd\,\ mmm\ dd"/>
+    <numFmt numFmtId="164" formatCode="ddd\,\ mmm\ dd"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -321,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -687,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,13 +775,31 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,22 +829,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1348,7 +1357,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
@@ -1361,83 +1370,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="27">
+      <c r="A3" s="34">
         <v>42768</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1475,7 +1484,7 @@
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="27"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1520,7 @@
       <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="27"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1556,7 @@
       <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="27"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1587,7 +1596,7 @@
       <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="27"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1632,7 @@
       <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="27"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1659,7 +1668,7 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="27"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1691,7 +1700,7 @@
       <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="27"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1715,9 +1724,9 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="28"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="2"/>
@@ -1765,7 +1774,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="29">
+      <c r="A12" s="33">
         <v>42769</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1797,7 +1806,7 @@
       <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="27"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1833,7 +1842,7 @@
       <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="27"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1869,7 +1878,7 @@
       <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="27"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1905,7 +1914,7 @@
       <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="27"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1941,7 +1950,7 @@
       <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="27"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +1986,7 @@
       <c r="P17" s="23"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="27"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2020,7 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="27"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2041,7 +2050,7 @@
       <c r="P19" s="23"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="27"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2086,7 @@
       <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="27"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -2113,7 +2122,7 @@
       <c r="P21" s="23"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="27"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -2151,7 +2160,7 @@
       <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="27"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2187,7 +2196,7 @@
       <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="27"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
@@ -2217,7 +2226,7 @@
       <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="27"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2241,9 +2250,9 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="28"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="2"/>
@@ -2291,7 +2300,7 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="29">
+      <c r="A27" s="33">
         <v>42770</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2323,7 +2332,7 @@
       <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="27"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2368,7 @@
       <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="27"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +2404,7 @@
       <c r="P29" s="23"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="27"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2440,7 @@
       <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="27"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
@@ -2459,9 +2468,9 @@
       <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="28"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="2"/>
